--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2570.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2570.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9766148196458636</v>
+        <v>0.8854930400848389</v>
       </c>
       <c r="B1">
-        <v>1.523323947595771</v>
+        <v>0.8070028424263</v>
       </c>
       <c r="C1">
-        <v>3.358877311551252</v>
+        <v>2.394325017929077</v>
       </c>
       <c r="D1">
-        <v>2.139854951119093</v>
+        <v>5.37716817855835</v>
       </c>
       <c r="E1">
-        <v>0.7864513048770881</v>
+        <v>1.201570272445679</v>
       </c>
     </row>
   </sheetData>
